--- a/Assignment 3/scimagojr-3.xlsx
+++ b/Assignment 3/scimagojr-3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Rank</t>
   </si>
@@ -53,39 +53,39 @@
     <t>United Kingdom</t>
   </si>
   <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
+    <t>South Korea</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>Spain</t>
   </si>
   <si>
     <t>Iran</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -98,538 +98,520 @@
     <t>Netherlands</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Sweden</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Denmark</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Mexico</t>
+    <t>Greece</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>Algeria</t>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
   </si>
   <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Latvia</t>
   </si>
   <si>
     <t>Morocco</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Cuba</t>
   </si>
   <si>
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Lithuania</t>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Palestine </t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Armenia</t>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
   </si>
   <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Zambia </t>
+  </si>
+  <si>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
-    <t>Laos</t>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Niger</t>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Haïti</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
   </si>
   <si>
     <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Haïti</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Democratic Republic Congo</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Reunion</t>
   </si>
 </sst>
 </file>
@@ -723,7 +705,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -767,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>193483</v>
+        <v>127050</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>192270</v>
+        <v>126767</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1355524</v>
+        <v>597237</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>927458</v>
+        <v>411683</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7.01</v>
+        <v>4.7</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -793,22 +775,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>143130</v>
+        <v>96661</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>139924</v>
+        <v>94747</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1551044</v>
+        <v>792274</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>530169</v>
+        <v>265436</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>10.84</v>
+        <v>8.2</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>301</v>
+        <v>230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -819,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>41188</v>
+        <v>30504</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>40775</v>
+        <v>30287</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>357829</v>
+        <v>223024</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>93375</v>
+        <v>61554</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>8.69</v>
+        <v>7.31</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -845,22 +827,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>33293</v>
+        <v>20944</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>32300</v>
+        <v>20357</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>405816</v>
+        <v>206091</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>77019</v>
+        <v>37874</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>12.19</v>
+        <v>9.84</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -871,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>32064</v>
+        <v>18534</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>31167</v>
+        <v>18301</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>268746</v>
+        <v>34266</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>87658</v>
+        <v>12422</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>8.38</v>
+        <v>1.85</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>153</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -897,22 +879,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>27966</v>
+        <v>17899</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>27370</v>
+        <v>17620</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>278237</v>
+        <v>215003</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>59495</v>
+        <v>40930</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>9.95</v>
+        <v>12.01</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -923,22 +905,22 @@
         <v>14</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>26435</v>
+        <v>17027</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>26196</v>
+        <v>16831</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>68424</v>
+        <v>140566</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>29544</v>
+        <v>27426</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2.59</v>
+        <v>8.26</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -949,22 +931,22 @@
         <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>26148</v>
+        <v>15005</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>25571</v>
+        <v>14841</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>395467</v>
+        <v>128763</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>74112</v>
+        <v>37209</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>15.12</v>
+        <v>8.58</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -975,22 +957,22 @@
         <v>16</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>19696</v>
+        <v>13153</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>19214</v>
+        <v>12973</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>238639</v>
+        <v>130632</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>48462</v>
+        <v>28601</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>12.12</v>
+        <v>9.93</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1001,22 +983,22 @@
         <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>18773</v>
+        <v>11983</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>17987</v>
+        <v>11923</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>221652</v>
+        <v>114675</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>54282</v>
+        <v>22595</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>11.81</v>
+        <v>9.57</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1027,22 +1009,22 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>18217</v>
+        <v>10964</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>17994</v>
+        <v>10794</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>208150</v>
+        <v>111850</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>39811</v>
+        <v>26661</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>11.43</v>
+        <v>10.2</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1053,22 +1035,22 @@
         <v>19</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>15614</v>
+        <v>9428</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>15334</v>
+        <v>9330</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>160505</v>
+        <v>123336</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>51493</v>
+        <v>23964</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>10.28</v>
+        <v>13.08</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1079,22 +1061,22 @@
         <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>15332</v>
+        <v>8896</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>15132</v>
+        <v>8819</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>118483</v>
+        <v>57470</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>28818</v>
+        <v>19125</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>7.73</v>
+        <v>6.46</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1105,22 +1087,22 @@
         <v>21</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14907</v>
+        <v>8831</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14564</v>
+        <v>8725</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>196567</v>
+        <v>90765</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>34134</v>
+        <v>15606</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>13.19</v>
+        <v>10.28</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1131,22 +1113,22 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>14204</v>
+        <v>8668</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>13916</v>
+        <v>8596</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>233955</v>
+        <v>60702</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>42632</v>
+        <v>14396</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>16.47</v>
+        <v>7</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1157,22 +1139,22 @@
         <v>23</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>9603</v>
+        <v>6468</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>9505</v>
+        <v>6441</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>140752</v>
+        <v>86099</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>20607</v>
+        <v>14768</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>14.66</v>
+        <v>13.31</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1183,22 +1165,22 @@
         <v>24</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>8968</v>
+        <v>5879</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>8707</v>
+        <v>5827</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>157567</v>
+        <v>91857</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>33600</v>
+        <v>23165</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>17.57</v>
+        <v>15.62</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1209,22 +1191,22 @@
         <v>25</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>8437</v>
+        <v>5675</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>8323</v>
+        <v>5634</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>79053</v>
+        <v>32693</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>17256</v>
+        <v>6024</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>9.37</v>
+        <v>5.76</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1235,22 +1217,22 @@
         <v>26</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>8013</v>
+        <v>5170</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>7818</v>
+        <v>5105</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>97546</v>
+        <v>48351</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>13200</v>
+        <v>6067</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>12.17</v>
+        <v>9.35</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1261,22 +1243,22 @@
         <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>7253</v>
+        <v>4565</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>7002</v>
+        <v>4494</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>70334</v>
+        <v>57889</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>16961</v>
+        <v>9632</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>9.7</v>
+        <v>12.68</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1287,22 +1269,22 @@
         <v>28</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>7144</v>
+        <v>3914</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6961</v>
+        <v>3881</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>112443</v>
+        <v>25545</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>17916</v>
+        <v>6597</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>15.74</v>
+        <v>6.53</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1313,22 +1295,22 @@
         <v>29</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>6255</v>
+        <v>3636</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>6061</v>
+        <v>3599</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>84446</v>
+        <v>38962</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>14272</v>
+        <v>6186</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>13.5</v>
+        <v>10.72</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1339,19 +1321,19 @@
         <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>5962</v>
+        <v>3531</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5839</v>
+        <v>3494</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>55277</v>
+        <v>37254</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>8852</v>
+        <v>6191</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>9.27</v>
+        <v>10.55</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>85</v>
@@ -1365,22 +1347,22 @@
         <v>31</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>5513</v>
+        <v>3249</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5395</v>
+        <v>3214</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>77315</v>
+        <v>21524</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>11413</v>
+        <v>4145</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>14.02</v>
+        <v>6.62</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1391,22 +1373,22 @@
         <v>32</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>5346</v>
+        <v>3123</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5199</v>
+        <v>3102</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>47581</v>
+        <v>24852</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>11065</v>
+        <v>5395</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>8.9</v>
+        <v>7.96</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1417,22 +1399,22 @@
         <v>33</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>5020</v>
+        <v>2979</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>4833</v>
+        <v>2930</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>41545</v>
+        <v>21208</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>7422</v>
+        <v>2469</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>8.28</v>
+        <v>7.12</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1443,22 +1425,22 @@
         <v>34</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>4828</v>
+        <v>2866</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>4724</v>
+        <v>2835</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>42956</v>
+        <v>41662</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>7152</v>
+        <v>6226</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>8.9</v>
+        <v>14.54</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1469,22 +1451,22 @@
         <v>35</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>4729</v>
+        <v>2789</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>4585</v>
+        <v>2752</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>11032</v>
+        <v>19123</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>4870</v>
+        <v>2778</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2.33</v>
+        <v>6.86</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1495,22 +1477,22 @@
         <v>36</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>4461</v>
+        <v>2697</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>4327</v>
+        <v>2642</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>71580</v>
+        <v>23720</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>7309</v>
+        <v>3300</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>16.05</v>
+        <v>8.79</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1521,22 +1503,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>4322</v>
+        <v>2488</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4150</v>
+        <v>2443</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>51169</v>
+        <v>36098</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>6855</v>
+        <v>3700</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>11.84</v>
+        <v>14.51</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1547,22 +1529,22 @@
         <v>38</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>4284</v>
+        <v>2448</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4174</v>
+        <v>2436</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>73881</v>
+        <v>34453</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>10280</v>
+        <v>3959</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>17.25</v>
+        <v>14.07</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1573,22 +1555,22 @@
         <v>39</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>4195</v>
+        <v>2443</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>3988</v>
+        <v>2426</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>47574</v>
+        <v>22700</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>7858</v>
+        <v>3639</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>11.34</v>
+        <v>9.29</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1599,22 +1581,22 @@
         <v>40</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3790</v>
+        <v>1998</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>3730</v>
+        <v>1978</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>67535</v>
+        <v>19273</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>7185</v>
+        <v>3260</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>17.82</v>
+        <v>9.65</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1625,22 +1607,22 @@
         <v>41</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>3480</v>
+        <v>1928</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>3390</v>
+        <v>1913</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>28038</v>
+        <v>11924</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>4932</v>
+        <v>1996</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>8.06</v>
+        <v>6.18</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1651,22 +1633,22 @@
         <v>42</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3351</v>
+        <v>1761</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>3323</v>
+        <v>1736</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>15676</v>
+        <v>14580</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3359</v>
+        <v>1557</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4.68</v>
+        <v>8.28</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1677,22 +1659,22 @@
         <v>43</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3277</v>
+        <v>1744</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3199</v>
+        <v>1608</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>38574</v>
+        <v>5073</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>6022</v>
+        <v>1323</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>11.77</v>
+        <v>2.91</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1703,22 +1685,22 @@
         <v>44</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3059</v>
+        <v>1738</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2949</v>
+        <v>1729</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>28887</v>
+        <v>7100</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>3496</v>
+        <v>1350</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>9.44</v>
+        <v>4.09</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1729,22 +1711,22 @@
         <v>45</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2776</v>
+        <v>1722</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2733</v>
+        <v>1712</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>36653</v>
+        <v>19764</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>4577</v>
+        <v>2600</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>13.2</v>
+        <v>11.48</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1755,22 +1737,22 @@
         <v>46</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2748</v>
+        <v>1608</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2697</v>
+        <v>1600</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>12458</v>
+        <v>5630</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2932</v>
+        <v>1119</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4.53</v>
+        <v>3.5</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -1781,22 +1763,22 @@
         <v>47</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2356</v>
+        <v>1223</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2311</v>
+        <v>1213</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>17237</v>
+        <v>10620</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1861</v>
+        <v>1654</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>7.32</v>
+        <v>8.68</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -1807,22 +1789,22 @@
         <v>48</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2254</v>
+        <v>1215</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2169</v>
+        <v>1202</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>18628</v>
+        <v>14764</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>3857</v>
+        <v>2051</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>8.26</v>
+        <v>12.15</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -1833,22 +1815,22 @@
         <v>49</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2041</v>
+        <v>1215</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2017</v>
+        <v>1197</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>9543</v>
+        <v>7393</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1583</v>
+        <v>1413</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4.68</v>
+        <v>6.08</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -1859,22 +1841,22 @@
         <v>50</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>2002</v>
+        <v>1137</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1956</v>
+        <v>1124</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>11317</v>
+        <v>6055</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2296</v>
+        <v>611</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>5.65</v>
+        <v>5.33</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -1885,22 +1867,22 @@
         <v>51</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1882</v>
+        <v>1092</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1858</v>
+        <v>1082</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>17701</v>
+        <v>11504</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>2195</v>
+        <v>1209</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>9.41</v>
+        <v>10.53</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -1911,22 +1893,22 @@
         <v>52</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1815</v>
+        <v>1017</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1779</v>
+        <v>1014</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>31952</v>
+        <v>7111</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>3736</v>
+        <v>844</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>17.6</v>
+        <v>6.99</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -1937,22 +1919,22 @@
         <v>53</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1785</v>
+        <v>1017</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1740</v>
+        <v>1011</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>23984</v>
+        <v>3559</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>3217</v>
+        <v>684</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>13.44</v>
+        <v>3.5</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -1963,22 +1945,22 @@
         <v>54</v>
       </c>
       <c r="C48" s="0" t="n">
+        <v>974</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>959</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>14361</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>1719</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1694</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>18891</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>2665</v>
-      </c>
       <c r="G48" s="0" t="n">
-        <v>10.99</v>
+        <v>14.74</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -1989,22 +1971,22 @@
         <v>55</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1688</v>
+        <v>891</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1653</v>
+        <v>886</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>21125</v>
+        <v>6109</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>2202</v>
+        <v>693</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>12.51</v>
+        <v>6.86</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2015,22 +1997,22 @@
         <v>56</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1654</v>
+        <v>833</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1631</v>
+        <v>827</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>8357</v>
+        <v>3588</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1597</v>
+        <v>355</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5.05</v>
+        <v>4.31</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2041,22 +2023,22 @@
         <v>57</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1409</v>
+        <v>737</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1384</v>
+        <v>731</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>5500</v>
+        <v>6101</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>823</v>
+        <v>651</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3.9</v>
+        <v>8.28</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2067,22 +2049,22 @@
         <v>58</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1399</v>
+        <v>706</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1351</v>
+        <v>699</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>9673</v>
+        <v>4367</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1773</v>
+        <v>847</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>6.91</v>
+        <v>6.19</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2093,22 +2075,22 @@
         <v>59</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1345</v>
+        <v>690</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1317</v>
+        <v>690</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>11255</v>
+        <v>2371</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1375</v>
+        <v>593</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>8.37</v>
+        <v>3.44</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2119,22 +2101,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1263</v>
+        <v>682</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1240</v>
+        <v>664</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>8982</v>
+        <v>2865</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1766</v>
+        <v>1394</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>7.11</v>
+        <v>4.2</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2145,22 +2127,22 @@
         <v>61</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1211</v>
+        <v>666</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1172</v>
+        <v>650</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>12505</v>
+        <v>5907</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1657</v>
+        <v>738</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>10.33</v>
+        <v>8.87</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2171,22 +2153,22 @@
         <v>62</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1200</v>
+        <v>615</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1187</v>
+        <v>612</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>10913</v>
+        <v>3902</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1805</v>
+        <v>670</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>9.09</v>
+        <v>6.34</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2197,22 +2179,22 @@
         <v>63</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1197</v>
+        <v>609</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1190</v>
+        <v>609</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>10821</v>
+        <v>6784</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1043</v>
+        <v>747</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>9.04</v>
+        <v>11.14</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2223,19 +2205,19 @@
         <v>64</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>1135</v>
+        <v>593</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1117</v>
+        <v>588</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>4058</v>
+        <v>3536</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1014</v>
+        <v>836</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3.58</v>
+        <v>5.96</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>28</v>
@@ -2249,22 +2231,22 @@
         <v>65</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>1082</v>
+        <v>558</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1060</v>
+        <v>554</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>5708</v>
+        <v>6992</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>995</v>
+        <v>690</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>5.28</v>
+        <v>12.53</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2275,22 +2257,22 @@
         <v>66</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1049</v>
+        <v>545</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1042</v>
+        <v>540</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>10189</v>
+        <v>6095</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1333</v>
+        <v>989</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>9.71</v>
+        <v>11.18</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2301,22 +2283,22 @@
         <v>67</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1010</v>
+        <v>520</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>971</v>
+        <v>513</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>6842</v>
+        <v>2409</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1294</v>
+        <v>457</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>6.77</v>
+        <v>4.63</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2327,22 +2309,22 @@
         <v>68</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>995</v>
+        <v>493</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>976</v>
+        <v>486</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>7110</v>
+        <v>3247</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1077</v>
+        <v>650</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>7.15</v>
+        <v>6.59</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2353,22 +2335,22 @@
         <v>69</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>931</v>
+        <v>477</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>927</v>
+        <v>469</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>5054</v>
+        <v>2084</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>753</v>
+        <v>327</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>5.43</v>
+        <v>4.37</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2379,22 +2361,22 @@
         <v>70</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>918</v>
+        <v>477</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>883</v>
+        <v>472</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>5164</v>
+        <v>1948</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>2040</v>
+        <v>143</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>5.63</v>
+        <v>4.08</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2405,22 +2387,22 @@
         <v>71</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>893</v>
+        <v>457</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>863</v>
+        <v>455</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>11682</v>
+        <v>2396</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1205</v>
+        <v>262</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>13.08</v>
+        <v>5.24</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2431,22 +2413,22 @@
         <v>72</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>837</v>
+        <v>412</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>811</v>
+        <v>405</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>3774</v>
+        <v>1508</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>436</v>
+        <v>361</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4.51</v>
+        <v>3.66</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2457,22 +2439,22 @@
         <v>73</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>813</v>
+        <v>353</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>801</v>
+        <v>353</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>11546</v>
+        <v>1537</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>1060</v>
+        <v>134</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>14.2</v>
+        <v>4.35</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2483,22 +2465,22 @@
         <v>74</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>767</v>
+        <v>342</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>765</v>
+        <v>339</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>5945</v>
+        <v>548</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>606</v>
+        <v>125</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>7.75</v>
+        <v>1.6</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2509,22 +2491,22 @@
         <v>75</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>658</v>
+        <v>293</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>658</v>
+        <v>290</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1117</v>
+        <v>2721</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.7</v>
+        <v>9.29</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2535,22 +2517,22 @@
         <v>76</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>594</v>
+        <v>285</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>576</v>
+        <v>284</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1498</v>
+        <v>452</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>331</v>
+        <v>95</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2.52</v>
+        <v>1.59</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2561,22 +2543,22 @@
         <v>77</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>590</v>
+        <v>262</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>568</v>
+        <v>256</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>2794</v>
+        <v>2495</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>649</v>
+        <v>364</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4.74</v>
+        <v>9.52</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2587,22 +2569,22 @@
         <v>78</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>530</v>
+        <v>261</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>526</v>
+        <v>258</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>953</v>
+        <v>1164</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.8</v>
+        <v>4.46</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2613,22 +2595,22 @@
         <v>79</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>522</v>
+        <v>240</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>520</v>
+        <v>234</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1448</v>
+        <v>989</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>455</v>
+        <v>119</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2.77</v>
+        <v>4.12</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2639,22 +2621,22 @@
         <v>80</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>500</v>
+        <v>211</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>495</v>
+        <v>209</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1613</v>
+        <v>980</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3.23</v>
+        <v>4.64</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2665,22 +2647,22 @@
         <v>81</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>494</v>
+        <v>206</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>488</v>
+        <v>202</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>5975</v>
+        <v>601</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>517</v>
+        <v>99</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>12.1</v>
+        <v>2.92</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -2691,22 +2673,22 @@
         <v>82</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>373</v>
+        <v>185</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>8296</v>
+        <v>1018</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>21.44</v>
+        <v>5.47</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -2717,22 +2699,22 @@
         <v>83</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>335</v>
+        <v>186</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2372</v>
+        <v>900</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>7.08</v>
+        <v>4.84</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -2743,22 +2725,22 @@
         <v>84</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2815</v>
+        <v>335</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>8.85</v>
+        <v>1.84</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -2769,22 +2751,22 @@
         <v>85</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1791</v>
+        <v>4760</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>6.35</v>
+        <v>26.59</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -2795,22 +2777,22 @@
         <v>86</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1723</v>
+        <v>1468</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>6.48</v>
+        <v>9.99</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -2821,22 +2803,22 @@
         <v>87</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>824</v>
+        <v>319</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>3.23</v>
+        <v>2.49</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -2847,19 +2829,19 @@
         <v>88</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2.18</v>
+        <v>4.72</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>11</v>
@@ -2873,22 +2855,22 @@
         <v>89</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2089</v>
+        <v>997</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>8.7</v>
+        <v>8.98</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -2899,22 +2881,22 @@
         <v>90</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>2117</v>
+        <v>1130</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>8.97</v>
+        <v>10.76</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -2925,22 +2907,22 @@
         <v>91</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>949</v>
+        <v>1408</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>4.18</v>
+        <v>13.54</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -2951,22 +2933,22 @@
         <v>92</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1163</v>
+        <v>421</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>5.41</v>
+        <v>4.58</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -2977,22 +2959,22 @@
         <v>93</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1709</v>
+        <v>518</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>8.9</v>
+        <v>5.69</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3003,22 +2985,22 @@
         <v>94</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1844</v>
+        <v>655</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>10.08</v>
+        <v>7.44</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3029,22 +3011,22 @@
         <v>95</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1179</v>
+        <v>211</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>8.24</v>
+        <v>2.51</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3055,22 +3037,22 @@
         <v>96</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1432</v>
+        <v>156</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>10.61</v>
+        <v>2.11</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3081,22 +3063,22 @@
         <v>97</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>181</v>
+        <v>386</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1.35</v>
+        <v>5.44</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3107,22 +3089,22 @@
         <v>98</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>467</v>
+        <v>728</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>3.51</v>
+        <v>10.25</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3133,22 +3115,22 @@
         <v>99</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>895</v>
+        <v>639</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>7.22</v>
+        <v>9.26</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3159,22 +3141,22 @@
         <v>100</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>5.32</v>
+        <v>1.49</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3185,22 +3167,22 @@
         <v>101</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1005</v>
+        <v>303</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>8.38</v>
+        <v>4.81</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3211,22 +3193,22 @@
         <v>102</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>542</v>
+        <v>116</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>4.63</v>
+        <v>2.04</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3237,22 +3219,22 @@
         <v>103</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1258</v>
+        <v>158</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>11.33</v>
+        <v>2.77</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3263,22 +3245,22 @@
         <v>104</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>4.31</v>
+        <v>10.71</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3289,22 +3271,22 @@
         <v>105</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1029</v>
+        <v>407</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>9.35</v>
+        <v>7.98</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3315,22 +3297,22 @@
         <v>106</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>789</v>
+        <v>79</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>7.37</v>
+        <v>1.58</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3341,22 +3323,22 @@
         <v>107</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>491</v>
+        <v>128</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>4.96</v>
+        <v>2.61</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3367,22 +3349,22 @@
         <v>108</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>3.16</v>
+        <v>2.85</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3393,22 +3375,22 @@
         <v>109</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>422</v>
+        <v>164</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>4.64</v>
+        <v>3.81</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3419,22 +3401,22 @@
         <v>110</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1043</v>
+        <v>79</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>12.42</v>
+        <v>1.93</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3445,22 +3427,22 @@
         <v>111</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>3.58</v>
+        <v>5.47</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3471,22 +3453,22 @@
         <v>112</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>3.7</v>
+        <v>2.11</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3497,22 +3479,22 @@
         <v>113</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>3.37</v>
+        <v>0.26</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3523,22 +3505,22 @@
         <v>114</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1.23</v>
+        <v>2.32</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3549,22 +3531,22 @@
         <v>115</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>2.55</v>
+        <v>0.67</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -3575,22 +3557,22 @@
         <v>116</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>3.86</v>
+        <v>0.97</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -3601,19 +3583,19 @@
         <v>117</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>2.98</v>
+        <v>3.57</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>7</v>
@@ -3627,22 +3609,22 @@
         <v>118</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>528</v>
+        <v>104</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>10.15</v>
+        <v>3.47</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -3653,22 +3635,22 @@
         <v>119</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>3.08</v>
+        <v>4.32</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -3679,22 +3661,22 @@
         <v>120</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>8.14</v>
+        <v>3.96</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -3705,22 +3687,22 @@
         <v>121</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>365</v>
+        <v>158</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>7.93</v>
+        <v>6.08</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -3731,22 +3713,22 @@
         <v>122</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="F116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="H116" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -3757,22 +3739,22 @@
         <v>123</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>2.84</v>
+        <v>1.68</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -3783,22 +3765,22 @@
         <v>124</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>5.14</v>
+        <v>0.43</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -3809,22 +3791,22 @@
         <v>125</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>1.61</v>
+        <v>7.3</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -3835,22 +3817,22 @@
         <v>126</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -3861,22 +3843,22 @@
         <v>127</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>6.65</v>
+        <v>16.25</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -3887,22 +3869,22 @@
         <v>128</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>532</v>
+        <v>21</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>14.38</v>
+        <v>1.05</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -3913,22 +3895,22 @@
         <v>129</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1.56</v>
+        <v>5.5</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -3939,22 +3921,22 @@
         <v>130</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1.3</v>
+        <v>0.74</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -3965,22 +3947,22 @@
         <v>131</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -3991,19 +3973,19 @@
         <v>132</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>1.36</v>
+        <v>4</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>3</v>
@@ -4017,19 +3999,19 @@
         <v>133</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>3</v>
@@ -4043,22 +4025,22 @@
         <v>134</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>1.69</v>
+        <v>0.27</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4069,22 +4051,22 @@
         <v>135</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>4.04</v>
+        <v>1.57</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4095,22 +4077,22 @@
         <v>136</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>7.33</v>
+        <v>5.62</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4121,22 +4103,22 @@
         <v>137</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>1.95</v>
+        <v>5.46</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4147,22 +4129,22 @@
         <v>138</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>4.21</v>
+        <v>3.82</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4173,22 +4155,22 @@
         <v>139</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>11.11</v>
+        <v>10.1</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4199,22 +4181,22 @@
         <v>140</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4225,22 +4207,22 @@
         <v>141</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4251,19 +4233,19 @@
         <v>142</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>6.88</v>
+        <v>9.5</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>4</v>
@@ -4277,22 +4259,22 @@
         <v>143</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>3.71</v>
+        <v>4.5</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4303,22 +4285,22 @@
         <v>144</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>7.06</v>
+        <v>0.75</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4329,22 +4311,22 @@
         <v>145</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1</v>
+        <v>12.43</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4355,22 +4337,22 @@
         <v>146</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>6.93</v>
+        <v>7.29</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4381,22 +4363,22 @@
         <v>147</v>
       </c>
       <c r="C141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E141" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>106</v>
-      </c>
       <c r="F141" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>7.57</v>
+        <v>2</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4407,22 +4389,22 @@
         <v>148</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>5.55</v>
+        <v>1.14</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4433,19 +4415,19 @@
         <v>149</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>0.82</v>
+        <v>6.33</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>2</v>
@@ -4459,22 +4441,22 @@
         <v>150</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>6.18</v>
+        <v>1.5</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -4485,19 +4467,19 @@
         <v>151</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>1.3</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>2</v>
@@ -4511,22 +4493,22 @@
         <v>152</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>6.7</v>
+        <v>0.33</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -4537,22 +4519,22 @@
         <v>153</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G147" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H147" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="H147" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -4563,22 +4545,22 @@
         <v>154</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>3.5</v>
+        <v>0.33</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -4589,22 +4571,22 @@
         <v>155</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>15.89</v>
+        <v>1.17</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -4615,22 +4597,22 @@
         <v>156</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>5.11</v>
+        <v>4.17</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -4641,22 +4623,22 @@
         <v>157</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>1.11</v>
+        <v>3.6</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -4667,22 +4649,22 @@
         <v>158</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -4693,22 +4675,22 @@
         <v>159</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -4719,22 +4701,22 @@
         <v>160</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>3.63</v>
+        <v>0.4</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -4745,19 +4727,19 @@
         <v>161</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>2.63</v>
+        <v>8.4</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>3</v>
@@ -4771,22 +4753,22 @@
         <v>162</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -4797,19 +4779,19 @@
         <v>163</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>2</v>
@@ -4823,19 +4805,19 @@
         <v>164</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>4.17</v>
+        <v>4.75</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>2</v>
@@ -4849,22 +4831,22 @@
         <v>165</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -4875,19 +4857,19 @@
         <v>166</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>2</v>
@@ -4901,22 +4883,22 @@
         <v>167</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -4927,22 +4909,22 @@
         <v>168</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>6</v>
+        <v>2.67</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -4953,22 +4935,22 @@
         <v>169</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.2</v>
+        <v>16.33</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -4979,22 +4961,22 @@
         <v>170</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5005,19 +4987,19 @@
         <v>171</v>
       </c>
       <c r="C165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E165" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D165" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E165" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="F165" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>1</v>
@@ -5031,19 +5013,19 @@
         <v>172</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>1</v>
@@ -5057,19 +5039,19 @@
         <v>173</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>1</v>
@@ -5083,19 +5065,19 @@
         <v>174</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>1</v>
@@ -5109,19 +5091,19 @@
         <v>175</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>1</v>
@@ -5135,22 +5117,22 @@
         <v>176</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5161,22 +5143,22 @@
         <v>177</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5187,22 +5169,22 @@
         <v>178</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5213,22 +5195,22 @@
         <v>179</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5239,22 +5221,22 @@
         <v>180</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5265,22 +5247,22 @@
         <v>181</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>12.33</v>
+        <v>6</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5297,16 +5279,16 @@
         <v>2</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5323,16 +5305,16 @@
         <v>2</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5343,19 +5325,19 @@
         <v>184</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>1</v>
@@ -5369,22 +5351,22 @@
         <v>185</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -5395,19 +5377,19 @@
         <v>186</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>1</v>
@@ -5421,10 +5403,10 @@
         <v>187</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>0</v>
@@ -5447,19 +5429,19 @@
         <v>188</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>1</v>
@@ -5473,22 +5455,22 @@
         <v>189</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -5499,19 +5481,19 @@
         <v>190</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>1</v>
@@ -5557,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -5661,16 +5643,16 @@
         <v>1</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -5687,16 +5669,16 @@
         <v>1</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -5713,171 +5695,15 @@
         <v>1</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
-      <c r="A193" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D193" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
-      <c r="A194" s="0" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C194" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D194" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="F194" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H194" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
-      <c r="A195" s="0" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
-      <c r="A196" s="0" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
-      <c r="A197" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
-      <c r="A198" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F198" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G198" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H198" s="0" t="n">
         <v>1</v>
       </c>
     </row>
